--- a/Tasks.xlsx
+++ b/Tasks.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kga\uni\semester4\SWT\SWT_Gruppe21_ATM\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Chris W Olesen\Documents\6.semester\SWT\SWT_ATM\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{00B7CBB1-5DCC-4E05-8CAB-00353187ABC3}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{71DC1849-A625-4D7B-BB64-76AEB3787E26}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="7980" xr2:uid="{C49E8341-C52A-4BC8-BBCA-626CF73636D2}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="10">
   <si>
     <t>Name</t>
   </si>
@@ -37,6 +37,24 @@
   </si>
   <si>
     <t>ToTrack</t>
+  </si>
+  <si>
+    <t>Chris</t>
+  </si>
+  <si>
+    <t>Danger class, calculateDistance() metode</t>
+  </si>
+  <si>
+    <t>Interface Idanger</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Interface Iseparation - hvordan gemmes LIST i interface!? </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Chris </t>
+  </si>
+  <si>
+    <t>Logger</t>
   </si>
 </sst>
 </file>
@@ -52,12 +70,24 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -72,8 +102,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -388,15 +420,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E8317FA0-267C-4D18-B8C8-8D9465CE989D}">
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:B6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="2" width="18.140625" customWidth="1"/>
+    <col min="1" max="1" width="18.140625" customWidth="1"/>
+    <col min="2" max="2" width="46" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
@@ -415,6 +448,38 @@
         <v>3</v>
       </c>
     </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>8</v>
+      </c>
+      <c r="B6" t="s">
+        <v>9</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Tasks.xlsx
+++ b/Tasks.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="19126"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20730"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Chris W Olesen\Documents\6.semester\SWT\SWT_ATM\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Gnutz\uni\semester4\SWT\SWT_Gruppe21_ATM\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{71DC1849-A625-4D7B-BB64-76AEB3787E26}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B37447EE-28DA-4835-B377-07F081A00A7F}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="7980" xr2:uid="{C49E8341-C52A-4BC8-BBCA-626CF73636D2}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="11">
   <si>
     <t>Name</t>
   </si>
@@ -55,6 +55,9 @@
   </si>
   <si>
     <t>Logger</t>
+  </si>
+  <si>
+    <t>TransponderReceiver Decoder</t>
   </si>
 </sst>
 </file>
@@ -126,7 +129,7 @@
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office-tema">
   <a:themeElements>
-    <a:clrScheme name="Kontor">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -164,7 +167,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Kontor">
+    <a:fontScheme name="Office">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -270,7 +273,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Kontor">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -420,19 +423,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E8317FA0-267C-4D18-B8C8-8D9465CE989D}">
-  <dimension ref="A1:B6"/>
+  <dimension ref="A1:B7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="18.140625" customWidth="1"/>
+    <col min="1" max="1" width="18.1796875" customWidth="1"/>
     <col min="2" max="2" width="46" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -440,7 +443,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -448,7 +451,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
         <v>4</v>
       </c>
@@ -456,7 +459,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A4" s="1" t="s">
         <v>4</v>
       </c>
@@ -464,7 +467,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A5" s="2" t="s">
         <v>4</v>
       </c>
@@ -472,12 +475,20 @@
         <v>7</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>8</v>
       </c>
       <c r="B6" t="s">
         <v>9</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A7" t="s">
+        <v>2</v>
+      </c>
+      <c r="B7" t="s">
+        <v>10</v>
       </c>
     </row>
   </sheetData>

--- a/Tasks.xlsx
+++ b/Tasks.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Gnutz\uni\semester4\SWT\SWT_Gruppe21_ATM\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Mette\Documents\4. Semester\SWT_Gruppe21_ATM\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B37447EE-28DA-4835-B377-07F081A00A7F}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3C6C8258-D1F4-4B7F-9358-701D2C75E5EA}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="7980" xr2:uid="{C49E8341-C52A-4BC8-BBCA-626CF73636D2}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="15">
   <si>
     <t>Name</t>
   </si>
@@ -58,13 +58,25 @@
   </si>
   <si>
     <t>TransponderReceiver Decoder</t>
+  </si>
+  <si>
+    <t>Mette</t>
+  </si>
+  <si>
+    <t>Track + track test</t>
+  </si>
+  <si>
+    <t>NEED HELP</t>
+  </si>
+  <si>
+    <t>Track test!</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -72,8 +84,30 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -92,8 +126,18 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -101,17 +145,38 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="2" applyFont="1" applyFill="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="3">
+    <cellStyle name="Kontrollér celle" xfId="2" builtinId="23"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Ugyldig" xfId="1" builtinId="27"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -423,27 +488,30 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E8317FA0-267C-4D18-B8C8-8D9465CE989D}">
-  <dimension ref="A1:B7"/>
+  <dimension ref="A1:C9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+      <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="18.1796875" customWidth="1"/>
+    <col min="1" max="1" width="18.140625" customWidth="1"/>
     <col min="2" max="2" width="46" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -451,7 +519,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>4</v>
       </c>
@@ -459,7 +527,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>4</v>
       </c>
@@ -467,7 +535,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>4</v>
       </c>
@@ -475,7 +543,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>8</v>
       </c>
@@ -483,7 +551,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>2</v>
       </c>
@@ -491,6 +559,18 @@
         <v>10</v>
       </c>
     </row>
+    <row r="8" spans="1:3" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Tasks.xlsx
+++ b/Tasks.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="19126"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Mette\Documents\4. Semester\SWT_Gruppe21_ATM\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Chris W Olesen\Documents\6.semester\SWT\SWT_ATM\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3C6C8258-D1F4-4B7F-9358-701D2C75E5EA}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{BE88C139-E0D1-4E19-B966-260CBD9FBF7C}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="7980" xr2:uid="{C49E8341-C52A-4BC8-BBCA-626CF73636D2}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="16">
   <si>
     <t>Name</t>
   </si>
@@ -70,6 +70,9 @@
   </si>
   <si>
     <t>Track test!</t>
+  </si>
+  <si>
+    <t>Separation - calculateDistantance test</t>
   </si>
 </sst>
 </file>
@@ -166,12 +169,13 @@
     <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="2" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Kontrollér celle" xfId="2" builtinId="23"/>
@@ -194,7 +198,7 @@
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office-tema">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Kontor">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -232,7 +236,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Kontor">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -338,7 +342,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Kontor">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -488,10 +492,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E8317FA0-267C-4D18-B8C8-8D9465CE989D}">
-  <dimension ref="A1:C9"/>
+  <dimension ref="A1:C13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A9" sqref="A9"/>
+      <selection activeCell="A12" sqref="A12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -536,18 +540,18 @@
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5" s="2" t="s">
+      <c r="A5" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="2" t="s">
+      <c r="B5" s="1" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
+      <c r="A6" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B6" s="1" t="s">
         <v>9</v>
       </c>
     </row>
@@ -571,6 +575,14 @@
       </c>
     </row>
     <row r="9" spans="1:3" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A13" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="B13" s="5" t="s">
+        <v>15</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Tasks.xlsx
+++ b/Tasks.xlsx
@@ -1,21 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="19126"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18431"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Chris W Olesen\Documents\6.semester\SWT\SWT_ATM\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Mikkel\Desktop\AU\4. Semester\GIT\SWT_Gruppe21_ATM\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{BE88C139-E0D1-4E19-B966-260CBD9FBF7C}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="7980" xr2:uid="{C49E8341-C52A-4BC8-BBCA-626CF73636D2}"/>
   </bookViews>
   <sheets>
     <sheet name="Ark1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="179017"/>
+  <calcPr calcId="171027"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -25,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="19">
   <si>
     <t>Name</t>
   </si>
@@ -73,6 +72,15 @@
   </si>
   <si>
     <t>Separation - calculateDistantance test</t>
+  </si>
+  <si>
+    <t>Mikkel</t>
+  </si>
+  <si>
+    <t>raiseAlaram()</t>
+  </si>
+  <si>
+    <t>deactivateAlarm()</t>
   </si>
 </sst>
 </file>
@@ -110,7 +118,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -137,6 +145,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
@@ -169,13 +183,14 @@
     <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="2" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Kontrollér celle" xfId="2" builtinId="23"/>
@@ -495,7 +510,7 @@
   <dimension ref="A1:C13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A12" sqref="A12"/>
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -574,7 +589,22 @@
         <v>14</v>
       </c>
     </row>
-    <row r="9" spans="1:3" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
+    <row r="9" spans="1:3" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="B9" s="6" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>16</v>
+      </c>
+      <c r="B10" t="s">
+        <v>18</v>
+      </c>
+    </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" s="5" t="s">
         <v>8</v>

--- a/Tasks.xlsx
+++ b/Tasks.xlsx
@@ -1,13 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18431"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="19126"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Mikkel\Desktop\AU\4. Semester\GIT\SWT_Gruppe21_ATM\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Chris W Olesen\Documents\6.semester\SWT\SWT_ATM\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{D7D6453F-BEA6-494D-BC8B-6DFE676A360C}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="7980" xr2:uid="{C49E8341-C52A-4BC8-BBCA-626CF73636D2}"/>
   </bookViews>
@@ -24,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="20">
   <si>
     <t>Name</t>
   </si>
@@ -81,6 +82,9 @@
   </si>
   <si>
     <t>deactivateAlarm()</t>
+  </si>
+  <si>
+    <t>Danger Test</t>
   </si>
 </sst>
 </file>
@@ -510,7 +514,7 @@
   <dimension ref="A1:C13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -605,6 +609,14 @@
         <v>18</v>
       </c>
     </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>8</v>
+      </c>
+      <c r="B12" t="s">
+        <v>19</v>
+      </c>
+    </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" s="5" t="s">
         <v>8</v>

--- a/Tasks.xlsx
+++ b/Tasks.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Chris W Olesen\Documents\6.semester\SWT\SWT_ATM\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{D7D6453F-BEA6-494D-BC8B-6DFE676A360C}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{1D0431B7-1065-48F4-A316-1D0AEE3324FD}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="7980" xr2:uid="{C49E8341-C52A-4BC8-BBCA-626CF73636D2}"/>
   </bookViews>
@@ -514,7 +514,7 @@
   <dimension ref="A1:C13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -610,10 +610,10 @@
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
+      <c r="A12" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B12" t="s">
+      <c r="B12" s="1" t="s">
         <v>19</v>
       </c>
     </row>
